--- a/forecast_summary_B08W8G5CCC.xlsx
+++ b/forecast_summary_B08W8G5CCC.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-30.47821972060654</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.41632343312154</v>
+        <v>-19.78977628773871</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-75.04470214166747</v>
       </c>
       <c r="D3" t="n">
-        <v>-64.14573540866732</v>
+        <v>-64.13449929061828</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-95.53325657906052</v>
       </c>
       <c r="D4" t="n">
-        <v>-84.96835029358165</v>
+        <v>-84.2484185890458</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-69.55735899975073</v>
       </c>
       <c r="D5" t="n">
-        <v>-58.71594751244244</v>
+        <v>-58.6694839722792</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-11.46896553276531</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4387723319749103</v>
+        <v>-1.108754010964469</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45627</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>39.37887646226417</v>
       </c>
       <c r="D7" t="n">
-        <v>50.09937952195303</v>
+        <v>50.84699902937291</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>53.22956360786623</v>
       </c>
       <c r="D8" t="n">
-        <v>63.61246362993778</v>
+        <v>64.75189049557638</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>33.08347771965575</v>
       </c>
       <c r="D9" t="n">
-        <v>43.07647468015955</v>
+        <v>44.03036771427947</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>5.434235464189453</v>
       </c>
       <c r="D10" t="n">
-        <v>16.30389655547372</v>
+        <v>16.22353563002579</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-7.90031340183037</v>
       </c>
       <c r="D11" t="n">
-        <v>3.722025876175163</v>
+        <v>3.24112860383244</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-6.263084945855714</v>
       </c>
       <c r="D12" t="n">
-        <v>5.320950060723265</v>
+        <v>4.529365293992756</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-1.715238245551719</v>
       </c>
       <c r="D13" t="n">
-        <v>9.692489397559592</v>
+        <v>9.144377469290898</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-1.189490395711704</v>
       </c>
       <c r="D14" t="n">
-        <v>9.511244463629385</v>
+        <v>10.05795537717629</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-1.323143261144767</v>
       </c>
       <c r="D15" t="n">
-        <v>9.513294319199007</v>
+        <v>10.16321096267315</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>1.771315909530568</v>
       </c>
       <c r="D16" t="n">
-        <v>12.6567239587378</v>
+        <v>12.58629039411505</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>4.360064259488776</v>
       </c>
       <c r="D17" t="n">
-        <v>15.22244729453583</v>
+        <v>14.86220105420948</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.1061583281781888</v>
       </c>
       <c r="D18" t="n">
-        <v>11.20267084839023</v>
+        <v>11.68502912080277</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-9.728443056356294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6378543035159367</v>
+        <v>0.6526878864527204</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-15.99887193482987</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.849580804983479</v>
+        <v>-5.221000933672974</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-12.47829461605882</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.063630106348512</v>
+        <v>-1.099691239044269</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z590I AORUS ULTRA</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
     </row>
